--- a/DATA_goal/Junction_Flooding_397.xlsx
+++ b/DATA_goal/Junction_Flooding_397.xlsx
@@ -460,7 +460,7 @@
     <col width="6" customWidth="1" min="16" max="16"/>
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="5" customWidth="1" min="19" max="19"/>
+    <col width="6" customWidth="1" min="19" max="19"/>
     <col width="7" customWidth="1" min="20" max="20"/>
     <col width="6" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
@@ -655,103 +655,103 @@
         <v>44782.84027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.86</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.49</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.13</v>
+        <v>1.32</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.29</v>
+        <v>2.86</v>
       </c>
       <c r="G2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.15</v>
+        <v>1.49</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.04</v>
+        <v>0.38</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.04</v>
+        <v>0.37</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.4</v>
+        <v>3.98</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.19</v>
+        <v>1.94</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.11</v>
+        <v>1.14</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.16</v>
+        <v>1.57</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.64</v>
       </c>
       <c r="R2" s="4" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>7.97</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="Y2" s="4" t="n">
         <v>0.1</v>
       </c>
-      <c r="S2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.01</v>
-      </c>
       <c r="Z2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.93</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.05</v>
+        <v>0.49</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.1</v>
+        <v>0.97</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.17</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.27</v>
+        <v>2.71</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.1</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44782.84722222222</v>
       </c>
       <c r="B3" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="Y3" s="4" t="n">
         <v>0.03</v>
       </c>
-      <c r="C3" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="F3" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="G3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="M3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="R3" s="4" t="n">
+      <c r="Z3" s="4" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="AB3" s="4" t="n">
         <v>0.05</v>
       </c>
-      <c r="S3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="AC3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.31</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.29</v>
       </c>
       <c r="AE3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>0.19</v>
+        <v>1.95</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.29</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44782.85416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.29</v>
+        <v>2.85</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.25</v>
+        <v>2.54</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.58</v>
+        <v>5.79</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.48</v>
+        <v>4.82</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.25</v>
+        <v>2.49</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.65</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.32</v>
+        <v>3.22</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.13</v>
+        <v>1.33</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.21</v>
+        <v>2.05</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.3</v>
+        <v>3.02</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.24</v>
+        <v>2.39</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.64</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.21</v>
+        <v>2.05</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.33</v>
+        <v>3.33</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.18</v>
+        <v>1.82</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.36</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>2.74</v>
+        <v>27.39</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0.61</v>
+        <v>6.15</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.22</v>
+        <v>2.22</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.38</v>
+        <v>3.82</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.2</v>
+        <v>1.96</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.28</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0.32</v>
+        <v>3.2</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.18</v>
+        <v>1.83</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.14</v>
+        <v>1.44</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.19</v>
+        <v>1.92</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.26</v>
+        <v>2.56</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.55</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.19</v>
+        <v>1.89</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.24</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44782.86111111111</v>
       </c>
       <c r="B5" s="4" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>4.87</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>6.54</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>21.55</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>5.31</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="Y5" s="4" t="n">
         <v>0.24</v>
       </c>
-      <c r="C5" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="D5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" s="4" t="n">
+      <c r="Z5" s="4" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AD5" s="4" t="n">
         <v>2.15</v>
       </c>
-      <c r="U5" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>0.21</v>
-      </c>
       <c r="AE5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>0.65</v>
+        <v>6.51</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.15</v>
+        <v>1.51</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.2</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_397.xlsx
+++ b/DATA_goal/Junction_Flooding_397.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="6" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="6" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44782.84027777778</v>
+        <v>45078.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.86</v>
+        <v>7.794</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>2.49</v>
+        <v>5.793</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.08</v>
+        <v>1.946</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>1.32</v>
+        <v>16.826</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>2.86</v>
+        <v>13.11</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0</v>
+        <v>4.852</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>1.49</v>
+        <v>16.497</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.7</v>
+        <v>9.57</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.38</v>
+        <v>4.646</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.37</v>
+        <v>5.28</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>3.98</v>
+        <v>6.967</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.94</v>
+        <v>7.742</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>1.14</v>
+        <v>2.899</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.72</v>
+        <v>6.391</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.57</v>
+        <v>8.101000000000001</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.64</v>
+        <v>5.893</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.96</v>
+        <v>0.984</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>7.97</v>
+        <v>89.866</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>3.14</v>
+        <v>17.483</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1</v>
+        <v>5.899</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0.92</v>
+        <v>10.767</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.31</v>
+        <v>6.309</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.1</v>
+        <v>0.916</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.93</v>
+        <v>10.451</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.72</v>
+        <v>5.134</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.49</v>
+        <v>4.948</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>6.236</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.97</v>
+        <v>7.806</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.17</v>
+        <v>1.833</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.71</v>
+        <v>14.334</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.1</v>
+        <v>3.055</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.61</v>
+        <v>7.294</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44782.84722222222</v>
+        <v>45078.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.35</v>
+        <v>22.821</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.97</v>
+        <v>17.099</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0</v>
+        <v>1.568</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.28</v>
+        <v>49.92</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.31</v>
+        <v>40.591</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0</v>
+        <v>17.319</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>1.02</v>
+        <v>65.199</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.17</v>
+        <v>27.707</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>12.843</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.04</v>
+        <v>17.843</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.23</v>
+        <v>20.086</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0</v>
+        <v>21.466</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0</v>
+        <v>6.178</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.08</v>
+        <v>18.046</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>25.278</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.21</v>
+        <v>15.406</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.48</v>
+        <v>0.544</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>0</v>
+        <v>267.362</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>1.24</v>
+        <v>50.394</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.5</v>
+        <v>16.657</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.48</v>
+        <v>33.576</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.08</v>
+        <v>17.968</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.03</v>
+        <v>2.389</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.92</v>
+        <v>33.848</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.28</v>
+        <v>14.644</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.05</v>
+        <v>13.144</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.31</v>
+        <v>15.626</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.29</v>
+        <v>21.282</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0</v>
+        <v>0.915</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>1.95</v>
+        <v>59.53</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>1.29</v>
+        <v>9.367000000000001</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.11</v>
+        <v>20.754</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44782.85416666666</v>
+        <v>45078.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>2.85</v>
+        <v>15.678</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>2.54</v>
+        <v>11.743</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>1.077</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>5.79</v>
+        <v>34.374</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>4.82</v>
+        <v>27.9</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>2.49</v>
+        <v>11.903</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>5.65</v>
+        <v>50.108</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>3.22</v>
+        <v>19.034</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.33</v>
+        <v>8.894</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>2.05</v>
+        <v>12.215</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>3.02</v>
+        <v>13.821</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>2.39</v>
+        <v>14.779</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.64</v>
+        <v>4.234</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>2.05</v>
+        <v>12.407</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>3.33</v>
+        <v>17.392</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.82</v>
+        <v>10.621</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.36</v>
+        <v>0.338</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.696</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>27.39</v>
+        <v>181.533</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>6.15</v>
+        <v>34.759</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>2.22</v>
+        <v>11.452</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>3.82</v>
+        <v>23.151</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.96</v>
+        <v>12.377</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.28</v>
+        <v>1.637</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>3.2</v>
+        <v>24.918</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.83</v>
+        <v>10.053</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.44</v>
+        <v>9.048</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.92</v>
+        <v>10.728</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>2.56</v>
+        <v>14.612</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0</v>
+        <v>0.618</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>5.55</v>
+        <v>45.809</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1.89</v>
+        <v>6.465</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>2.38</v>
+        <v>14.253</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44782.86111111111</v>
+        <v>45078.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2.41</v>
+        <v>12.83</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>2.07</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.86</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>4.87</v>
+        <v>28.15</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>4.05</v>
+        <v>22.86</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>2.13</v>
+        <v>9.77</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>6.54</v>
+        <v>40.99</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.71</v>
+        <v>15.58</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.17</v>
+        <v>7.29</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.71</v>
+        <v>10.01</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>2.46</v>
+        <v>11.31</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>2.03</v>
+        <v>12.09</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>3.45</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.72</v>
+        <v>10.15</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.86</v>
+        <v>14.24</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.52</v>
+        <v>8.68</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.28</v>
+        <v>0.25</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>21.55</v>
+        <v>147.19</v>
       </c>
       <c r="U5" s="4" t="n">
+        <v>28.43</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>9.369999999999999</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>18.96</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>10.13</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>20.27</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>11.94</v>
+      </c>
+      <c r="AE5" s="4" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>37.37</v>
+      </c>
+      <c r="AG5" s="4" t="n">
         <v>5.31</v>
       </c>
-      <c r="V5" s="4" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>3.59</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="4" t="n">
-        <v>6.51</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>1.51</v>
-      </c>
       <c r="AH5" s="4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44782.86804398148</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>15.75</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>5.92</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>1.6</v>
+        <v>11.66</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_397.xlsx
+++ b/DATA_goal/Junction_Flooding_397.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
-    <col width="8" customWidth="1" min="5" max="5"/>
-    <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
-    <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="8" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
-    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
-    <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="9" customWidth="1" min="20" max="20"/>
-    <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
-    <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
-    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
-    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="8" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45078.50694444445</v>
+        <v>44782.84027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>7.794</v>
+        <v>0.861</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.793</v>
+        <v>2.491</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1.946</v>
+        <v>0.076</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>16.826</v>
+        <v>1.32</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>13.11</v>
+        <v>2.861</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>4.852</v>
+        <v>0.002</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>16.497</v>
+        <v>1.492</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>9.57</v>
+        <v>0.701</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>4.646</v>
+        <v>0.38</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>5.28</v>
+        <v>0.367</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>6.967</v>
+        <v>3.983</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>7.742</v>
+        <v>1.944</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.899</v>
+        <v>1.138</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>6.391</v>
+        <v>0.723</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>8.101000000000001</v>
+        <v>1.566</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>5.893</v>
+        <v>0.64</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.984</v>
+        <v>0.961</v>
       </c>
       <c r="S2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>7.973</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>3.143</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>0.999</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>0.309</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Z2" s="4" t="n">
         <v>0.93</v>
       </c>
-      <c r="T2" s="4" t="n">
-        <v>89.866</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>17.483</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>5.899</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>10.767</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>6.309</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.916</v>
-      </c>
-      <c r="Z2" s="4" t="n">
-        <v>10.451</v>
-      </c>
       <c r="AA2" s="4" t="n">
-        <v>5.134</v>
+        <v>0.721</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>4.948</v>
+        <v>0.494</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>6.236</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>7.806</v>
+        <v>0.966</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>1.833</v>
+        <v>0.167</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>14.334</v>
+        <v>2.71</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.055</v>
+        <v>3.101</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>7.294</v>
+        <v>0.612</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45078.51388888889</v>
+        <v>44782.84722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>22.821</v>
+        <v>0.346</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>17.099</v>
+        <v>0.967</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.568</v>
+        <v>0</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>49.92</v>
+        <v>0.285</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>40.591</v>
+        <v>0.312</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>17.319</v>
+        <v>0</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>65.199</v>
+        <v>1.023</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>27.707</v>
+        <v>0.171</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>12.843</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>17.843</v>
+        <v>0.036</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>20.086</v>
+        <v>1.232</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>21.466</v>
+        <v>0</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>6.178</v>
+        <v>0</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>18.046</v>
+        <v>0.083</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>25.278</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>15.406</v>
+        <v>0.208</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.544</v>
+        <v>0.484</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>267.362</v>
+        <v>0</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>50.394</v>
+        <v>1.245</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>16.657</v>
+        <v>0.503</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>33.576</v>
+        <v>0.477</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>17.968</v>
+        <v>0.079</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.389</v>
+        <v>0.03</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>33.848</v>
+        <v>0.923</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>14.644</v>
+        <v>0.276</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>13.144</v>
+        <v>0.048</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>15.626</v>
+        <v>0.311</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>21.282</v>
+        <v>0.289</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.915</v>
+        <v>0</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>59.53</v>
+        <v>1.948</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>9.367000000000001</v>
+        <v>1.292</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>20.754</v>
+        <v>0.107</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45078.52083333334</v>
+        <v>44782.85416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>15.678</v>
+        <v>2.851</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>11.743</v>
+        <v>2.537</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.077</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>34.374</v>
+        <v>5.788</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>27.9</v>
+        <v>4.817</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>11.903</v>
+        <v>2.494</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>50.108</v>
+        <v>5.646</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>19.034</v>
+        <v>3.219</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>8.894</v>
+        <v>1.332</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>12.215</v>
+        <v>2.053</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>13.821</v>
+        <v>3.019</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>14.779</v>
+        <v>2.391</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>4.234</v>
+        <v>0.641</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>12.407</v>
+        <v>2.052</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>17.392</v>
+        <v>3.335</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>10.621</v>
+        <v>1.816</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.338</v>
+        <v>0.363</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.696</v>
+        <v>0.022</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>181.533</v>
+        <v>27.395</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>34.759</v>
+        <v>6.149</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>11.452</v>
+        <v>2.22</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>23.151</v>
+        <v>3.815</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>12.377</v>
+        <v>1.958</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.637</v>
+        <v>0.285</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>24.918</v>
+        <v>3.203</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>10.053</v>
+        <v>1.828</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>9.048</v>
+        <v>1.44</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>10.728</v>
+        <v>1.917</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>14.612</v>
+        <v>2.56</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.618</v>
+        <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>45.809</v>
+        <v>5.551</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>6.465</v>
+        <v>1.89</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>14.253</v>
+        <v>2.377</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45078.52777777778</v>
+        <v>44782.86111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>12.83</v>
+        <v>2.407</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>9.609999999999999</v>
+        <v>2.067</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.86</v>
+        <v>0.05</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>28.15</v>
+        <v>4.872</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>22.86</v>
+        <v>4.048</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>9.77</v>
+        <v>2.13</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>40.99</v>
+        <v>6.541</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>15.58</v>
+        <v>2.706</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>7.29</v>
+        <v>1.17</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>10.01</v>
+        <v>1.712</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>11.31</v>
+        <v>2.461</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>12.09</v>
+        <v>2.026</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.45</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>10.15</v>
+        <v>1.724</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>14.24</v>
+        <v>2.864</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>8.68</v>
+        <v>1.525</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.25</v>
+        <v>0.285</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.55</v>
+        <v>0.001</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>147.19</v>
+        <v>21.549</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>28.43</v>
+        <v>5.307</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>9.369999999999999</v>
+        <v>1.852</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>18.96</v>
+        <v>3.413</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>10.13</v>
+        <v>1.705</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.34</v>
+        <v>0.24</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>20.27</v>
+        <v>3.585</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>8.220000000000001</v>
+        <v>1.527</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>7.4</v>
+        <v>1.21</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>8.75</v>
+        <v>1.608</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>11.94</v>
+        <v>2.147</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>37.37</v>
+        <v>6.51</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>5.31</v>
+        <v>1.508</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>11.66</v>
+        <v>2.003</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44782.86804398148</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>15.75</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>5.92</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>1.6</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_397.xlsx
+++ b/DATA_goal/Junction_Flooding_397.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44782.84027777778</v>
+        <v>45078.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.861</v>
+        <v>7.794</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>2.491</v>
+        <v>5.793</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.076</v>
+        <v>1.946</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>1.32</v>
+        <v>16.826</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>2.861</v>
+        <v>13.11</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.002</v>
+        <v>4.852</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>1.492</v>
+        <v>16.497</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.701</v>
+        <v>9.57</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.38</v>
+        <v>4.646</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.367</v>
+        <v>5.28</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>3.983</v>
+        <v>6.967</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.944</v>
+        <v>7.742</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>1.138</v>
+        <v>2.899</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.723</v>
+        <v>6.391</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.566</v>
+        <v>8.101000000000001</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.64</v>
+        <v>5.893</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.961</v>
+        <v>0.984</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>7.973</v>
+        <v>89.866</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>3.143</v>
+        <v>17.483</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.999</v>
+        <v>5.899</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0.92</v>
+        <v>10.767</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.309</v>
+        <v>6.309</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.1</v>
+        <v>0.916</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.93</v>
+        <v>10.451</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.721</v>
+        <v>5.134</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.494</v>
+        <v>4.948</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.8070000000000001</v>
+        <v>6.236</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.966</v>
+        <v>7.806</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.167</v>
+        <v>1.833</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.71</v>
+        <v>14.334</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.101</v>
+        <v>3.055</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.612</v>
+        <v>7.294</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44782.84722222222</v>
+        <v>45078.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.346</v>
+        <v>22.821</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.967</v>
+        <v>17.099</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0</v>
+        <v>1.568</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.285</v>
+        <v>49.92</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.312</v>
+        <v>40.591</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0</v>
+        <v>17.319</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>1.023</v>
+        <v>65.199</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.171</v>
+        <v>27.707</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.07199999999999999</v>
+        <v>12.843</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.036</v>
+        <v>17.843</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.232</v>
+        <v>20.086</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0</v>
+        <v>21.466</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0</v>
+        <v>6.178</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.083</v>
+        <v>18.046</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.8090000000000001</v>
+        <v>25.278</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.208</v>
+        <v>15.406</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.484</v>
+        <v>0.544</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>0</v>
+        <v>267.362</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>1.245</v>
+        <v>50.394</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.503</v>
+        <v>16.657</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.477</v>
+        <v>33.576</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.079</v>
+        <v>17.968</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.03</v>
+        <v>2.389</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.923</v>
+        <v>33.848</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.276</v>
+        <v>14.644</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.048</v>
+        <v>13.144</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.311</v>
+        <v>15.626</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.289</v>
+        <v>21.282</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0</v>
+        <v>0.915</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>1.948</v>
+        <v>59.53</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>1.292</v>
+        <v>9.367000000000001</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.107</v>
+        <v>20.754</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44782.85416666666</v>
+        <v>45078.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>2.851</v>
+        <v>15.678</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>2.537</v>
+        <v>11.743</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.06900000000000001</v>
+        <v>1.077</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>5.788</v>
+        <v>34.374</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>4.817</v>
+        <v>27.9</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>2.494</v>
+        <v>11.903</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>5.646</v>
+        <v>50.108</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>3.219</v>
+        <v>19.034</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.332</v>
+        <v>8.894</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>2.053</v>
+        <v>12.215</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>3.019</v>
+        <v>13.821</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>2.391</v>
+        <v>14.779</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.641</v>
+        <v>4.234</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>2.052</v>
+        <v>12.407</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>3.335</v>
+        <v>17.392</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.816</v>
+        <v>10.621</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.363</v>
+        <v>0.338</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.022</v>
+        <v>0.696</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>27.395</v>
+        <v>181.533</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>6.149</v>
+        <v>34.759</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>2.22</v>
+        <v>11.452</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>3.815</v>
+        <v>23.151</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.958</v>
+        <v>12.377</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.285</v>
+        <v>1.637</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>3.203</v>
+        <v>24.918</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.828</v>
+        <v>10.053</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.44</v>
+        <v>9.048</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.917</v>
+        <v>10.728</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>2.56</v>
+        <v>14.612</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0</v>
+        <v>0.618</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>5.551</v>
+        <v>45.809</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1.89</v>
+        <v>6.465</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>2.377</v>
+        <v>14.253</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44782.86111111111</v>
+        <v>45078.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2.407</v>
+        <v>12.83</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>2.067</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.86</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>4.872</v>
+        <v>28.15</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>4.048</v>
+        <v>22.86</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>2.13</v>
+        <v>9.77</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>6.541</v>
+        <v>40.99</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.706</v>
+        <v>15.58</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.17</v>
+        <v>7.29</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.712</v>
+        <v>10.01</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>2.461</v>
+        <v>11.31</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>2.026</v>
+        <v>12.09</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.5610000000000001</v>
+        <v>3.45</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.724</v>
+        <v>10.15</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.864</v>
+        <v>14.24</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.525</v>
+        <v>8.68</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.285</v>
+        <v>0.25</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.001</v>
+        <v>0.55</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>21.549</v>
+        <v>147.19</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>5.307</v>
+        <v>28.43</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.852</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>3.413</v>
+        <v>18.96</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.705</v>
+        <v>10.13</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.24</v>
+        <v>1.34</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>3.585</v>
+        <v>20.27</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.527</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.21</v>
+        <v>7.4</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.608</v>
+        <v>8.75</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>2.147</v>
+        <v>11.94</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>6.51</v>
+        <v>37.37</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>1.508</v>
+        <v>5.31</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>2.003</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44782.86804398148</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>15.75</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>5.92</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>1.6</v>
+        <v>11.66</v>
       </c>
     </row>
   </sheetData>
